--- a/2-Electrical/0 - Development Drawings/1 - Main Board/7 - Quote package/Main v7 Quote package/BOM-2020-12-04.xlsx
+++ b/2-Electrical/0 - Development Drawings/1 - Main Board/7 - Quote package/Main v7 Quote package/BOM-2020-12-04.xlsx
@@ -2393,18 +2393,32 @@
     <t>30 (was 31)</t>
   </si>
   <si>
+    <t>SC70</t>
+  </si>
+  <si>
+    <t>V3.2</t>
+  </si>
+  <si>
+    <t>original version</t>
+  </si>
+  <si>
+    <t>V4.1</t>
+  </si>
+  <si>
+    <t>C19 changed to DNI</t>
+  </si>
+  <si>
+    <t>D1,D2,D4,D6 package fixed to SC70 (was SOT23)</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>ESP-WROOM-32E</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">C1, C3, C4, C5, C9, C12, C13, C15, C16, C18, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C19</t>
+      <t>C1, C3, C4, C5, C9, C12, C13, C15, C16, C18</t>
     </r>
     <r>
       <rPr>
@@ -2416,36 +2430,12 @@
       <t>, C21, C22, C23, C27, C28, C31, C32, C38, C40, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52</t>
     </r>
   </si>
-  <si>
-    <t>SC70</t>
-  </si>
-  <si>
-    <t>V3.2</t>
-  </si>
-  <si>
-    <t>original version</t>
-  </si>
-  <si>
-    <t>V4.1</t>
-  </si>
-  <si>
-    <t>C19 changed to DNI</t>
-  </si>
-  <si>
-    <t>D1,D2,D4,D6 package fixed to SC70 (was SOT23)</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>ESP-WROOM-32E</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2518,13 +2508,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="5" tint="-0.24994659260841701"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2606,7 +2589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2661,8 +2644,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4054,8 +4036,8 @@
       <c r="B48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>739</v>
+      <c r="C48" s="26" t="s">
+        <v>738</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>16</v>
@@ -4077,8 +4059,8 @@
       <c r="B49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>739</v>
+      <c r="C49" s="26" t="s">
+        <v>738</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>65</v>
@@ -4100,8 +4082,8 @@
       <c r="B50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>739</v>
+      <c r="C50" s="26" t="s">
+        <v>738</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
@@ -4123,8 +4105,8 @@
       <c r="B51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>739</v>
+      <c r="C51" s="26" t="s">
+        <v>738</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -8172,8 +8154,8 @@
       <c r="G34" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>739</v>
+      <c r="H34" s="27" t="s">
+        <v>738</v>
       </c>
       <c r="I34" t="s">
         <v>608</v>
@@ -8933,7 +8915,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9774,7 +9756,7 @@
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>30</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -9789,8 +9771,8 @@
       <c r="F20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>738</v>
+      <c r="G20" s="10" t="s">
+        <v>746</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>571</v>
@@ -10122,16 +10104,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>592</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>493</v>
@@ -10141,7 +10123,7 @@
         <v>636</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10" t="s">
@@ -10386,8 +10368,8 @@
       <c r="E34" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>739</v>
+      <c r="F34" s="29" t="s">
+        <v>738</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>608</v>
@@ -11710,27 +11692,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="B1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>745</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>
